--- a/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 3.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1577,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
